--- a/biology/Zoologie/Dicteros/Dicteros.xlsx
+++ b/biology/Zoologie/Dicteros/Dicteros.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dicteroidae
 Dicteros est un genre de vers plats marins, le seul de la famille des Dicteroidae. Cette famille appartient au sous-ordre des Cotylea (ordre des Polycladia).
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,13 +552,49 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les noms valides complets (avec auteur) de ces taxons sont :
-pour la famille : Dicteroidae Faubel, 1984[1]
-pour le genre : Dicteros Jacubowa, 1906[1].
-Liste des espèces
-Selon World Register of Marine Species                               (22 novembre 2023)[1], le genre Dicteros contient une unique espèce : Dicteros pacificus Jacubowa, 1906.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les noms valides complets (avec auteur) de ces taxons sont :
+pour la famille : Dicteroidae Faubel, 1984
+pour le genre : Dicteros Jacubowa, 1906.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Dicteros</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dicteros</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (22 novembre 2023), le genre Dicteros contient une unique espèce : Dicteros pacificus Jacubowa, 1906.
 Synonymes, reclassements
 L'espèce Dicteros gamblei (Laidlaw, 1902) est reclassée en Pseudoceros gamblei Laidlaw, 1902, de la famille des Pseudocerotidae.
 </t>
